--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H2">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I2">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J2">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.196272</v>
+        <v>0.104012</v>
       </c>
       <c r="N2">
-        <v>0.588816</v>
+        <v>0.312036</v>
       </c>
       <c r="O2">
-        <v>0.02813229386822481</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P2">
-        <v>0.03089009369338271</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q2">
-        <v>11.102971219776</v>
+        <v>3.265531316604</v>
       </c>
       <c r="R2">
-        <v>99.92674097798401</v>
+        <v>29.389781849436</v>
       </c>
       <c r="S2">
-        <v>0.005388470413644195</v>
+        <v>0.001484881729634216</v>
       </c>
       <c r="T2">
-        <v>0.006054351270176807</v>
+        <v>0.001673973120890421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H3">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I3">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J3">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.425447</v>
       </c>
       <c r="O3">
-        <v>0.6892151609068061</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P3">
-        <v>0.7567787040415452</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q3">
-        <v>272.012518126892</v>
+        <v>150.965750536833</v>
       </c>
       <c r="R3">
-        <v>2448.112663142028</v>
+        <v>1358.691754831497</v>
       </c>
       <c r="S3">
-        <v>0.1320125376400988</v>
+        <v>0.06864619047836377</v>
       </c>
       <c r="T3">
-        <v>0.1483260022949754</v>
+        <v>0.07738789926428156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H4">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I4">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J4">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03080033333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N4">
-        <v>0.092401</v>
+        <v>4.347989</v>
       </c>
       <c r="O4">
-        <v>0.004414710343669059</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P4">
-        <v>0.004847482995302872</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q4">
-        <v>1.742353542836</v>
+        <v>68.2541160815565</v>
       </c>
       <c r="R4">
-        <v>15.681181885524</v>
+        <v>409.524696489339</v>
       </c>
       <c r="S4">
-        <v>0.0008455953212737718</v>
+        <v>0.03103607961942154</v>
       </c>
       <c r="T4">
-        <v>0.00095008986120555</v>
+        <v>0.02332556729328418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H5">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I5">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J5">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.868607</v>
+        <v>0.047446</v>
       </c>
       <c r="N5">
-        <v>3.737214</v>
+        <v>0.142338</v>
       </c>
       <c r="O5">
-        <v>0.267833421212511</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P5">
-        <v>0.1960593642364025</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q5">
-        <v>105.705804913956</v>
+        <v>1.489601188782</v>
       </c>
       <c r="R5">
-        <v>634.234829483736</v>
+        <v>13.406410699038</v>
       </c>
       <c r="S5">
-        <v>0.05130091675954001</v>
+        <v>0.0006773420234609951</v>
       </c>
       <c r="T5">
-        <v>0.03842695566666419</v>
+        <v>0.0007635977453925212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.56930800000001</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H6">
-        <v>169.707924</v>
+        <v>236.194275</v>
       </c>
       <c r="I6">
-        <v>0.1915403855399942</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J6">
-        <v>0.1959965330721471</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.072589</v>
+        <v>0.104012</v>
       </c>
       <c r="N6">
-        <v>0.217767</v>
+        <v>0.312036</v>
       </c>
       <c r="O6">
-        <v>0.01040441366878908</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P6">
-        <v>0.01142435503336674</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q6">
-        <v>4.106309498412</v>
+        <v>8.189012977099997</v>
       </c>
       <c r="R6">
-        <v>36.956785485708</v>
+        <v>73.70111679389998</v>
       </c>
       <c r="S6">
-        <v>0.001992865405437447</v>
+        <v>0.003723656144899209</v>
       </c>
       <c r="T6">
-        <v>0.002239133979125215</v>
+        <v>0.004197842948431472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
         <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J7">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.196272</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N7">
-        <v>0.588816</v>
+        <v>14.425447</v>
       </c>
       <c r="O7">
-        <v>0.02813229386822481</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P7">
-        <v>0.03089009369338271</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q7">
-        <v>15.4527742476</v>
+        <v>378.5786661906582</v>
       </c>
       <c r="R7">
-        <v>139.0749682284</v>
+        <v>3407.207995715925</v>
       </c>
       <c r="S7">
-        <v>0.007499507581682754</v>
+        <v>0.1721448947059565</v>
       </c>
       <c r="T7">
-        <v>0.008426260101176773</v>
+        <v>0.1940665851597955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
         <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J8">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.808482333333333</v>
+        <v>2.1739945</v>
       </c>
       <c r="N8">
-        <v>14.425447</v>
+        <v>4.347989</v>
       </c>
       <c r="O8">
-        <v>0.6892151609068061</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P8">
-        <v>0.7567787040415452</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q8">
-        <v>378.5786661906583</v>
+        <v>171.1616849271625</v>
       </c>
       <c r="R8">
-        <v>3407.207995715925</v>
+        <v>1026.970109562975</v>
       </c>
       <c r="S8">
-        <v>0.1837309943100438</v>
+        <v>0.07782955792506714</v>
       </c>
       <c r="T8">
-        <v>0.2064355732482476</v>
+        <v>0.05849381149453144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
         <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J9">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03080033333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N9">
-        <v>0.092401</v>
+        <v>0.142338</v>
       </c>
       <c r="O9">
-        <v>0.004414710343669059</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P9">
-        <v>0.004847482995302872</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q9">
-        <v>2.424954133808333</v>
+        <v>3.735491190549999</v>
       </c>
       <c r="R9">
-        <v>21.824587204275</v>
+        <v>33.61942071495</v>
       </c>
       <c r="S9">
-        <v>0.001176873590485089</v>
+        <v>0.001698578908692149</v>
       </c>
       <c r="T9">
-        <v>0.001322305880969327</v>
+        <v>0.001914883441634423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.731425</v>
+        <v>73.981791</v>
       </c>
       <c r="H10">
-        <v>236.194275</v>
+        <v>221.945373</v>
       </c>
       <c r="I10">
-        <v>0.2665800242529595</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J10">
-        <v>0.2727819534902172</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.868607</v>
+        <v>0.104012</v>
       </c>
       <c r="N10">
-        <v>3.737214</v>
+        <v>0.312036</v>
       </c>
       <c r="O10">
-        <v>0.267833421212511</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P10">
-        <v>0.1960593642364025</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q10">
-        <v>147.118091874975</v>
+        <v>7.694994045492</v>
       </c>
       <c r="R10">
-        <v>882.70855124985</v>
+        <v>69.25494640942799</v>
       </c>
       <c r="S10">
-        <v>0.0713990399225843</v>
+        <v>0.003499018983433858</v>
       </c>
       <c r="T10">
-        <v>0.05348145637645588</v>
+        <v>0.003944599499649358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.731425</v>
+        <v>73.981791</v>
       </c>
       <c r="H11">
-        <v>236.194275</v>
+        <v>221.945373</v>
       </c>
       <c r="I11">
-        <v>0.2665800242529595</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J11">
-        <v>0.2727819534902172</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.072589</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N11">
-        <v>0.217767</v>
+        <v>14.425447</v>
       </c>
       <c r="O11">
-        <v>0.01040441366878908</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P11">
-        <v>0.01142435503336674</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q11">
-        <v>5.715035409325</v>
+        <v>355.740135011859</v>
       </c>
       <c r="R11">
-        <v>51.435318683925</v>
+        <v>3201.661215106731</v>
       </c>
       <c r="S11">
-        <v>0.002773608848163617</v>
+        <v>0.1617599023751073</v>
       </c>
       <c r="T11">
-        <v>0.003116357883367575</v>
+        <v>0.1823591220834081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H12">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I12">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J12">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.196272</v>
+        <v>2.1739945</v>
       </c>
       <c r="N12">
-        <v>0.588816</v>
+        <v>4.347989</v>
       </c>
       <c r="O12">
-        <v>0.02813229386822481</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P12">
-        <v>0.03089009369338271</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q12">
-        <v>17.801839389024</v>
+        <v>160.8360067341495</v>
       </c>
       <c r="R12">
-        <v>160.216554501216</v>
+        <v>965.016040404897</v>
       </c>
       <c r="S12">
-        <v>0.008639550887544938</v>
+        <v>0.07313433089817327</v>
       </c>
       <c r="T12">
-        <v>0.009707184390827897</v>
+        <v>0.05496505285890382</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H13">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I13">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J13">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>4.808482333333333</v>
+        <v>0.047446</v>
       </c>
       <c r="N13">
-        <v>14.425447</v>
+        <v>0.142338</v>
       </c>
       <c r="O13">
-        <v>0.6892151609068061</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P13">
-        <v>0.7567787040415452</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q13">
-        <v>436.1285878931246</v>
+        <v>3.510140055786</v>
       </c>
       <c r="R13">
-        <v>3925.157291038121</v>
+        <v>31.591260502074</v>
       </c>
       <c r="S13">
-        <v>0.2116610000952462</v>
+        <v>0.001596108667153817</v>
       </c>
       <c r="T13">
-        <v>0.2378170327387759</v>
+        <v>0.001799364187404948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>90.69984199999999</v>
+        <v>11.713978</v>
       </c>
       <c r="H14">
-        <v>272.099526</v>
+        <v>23.427956</v>
       </c>
       <c r="I14">
-        <v>0.3071043878616396</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J14">
-        <v>0.3142491080532842</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03080033333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N14">
-        <v>0.092401</v>
+        <v>0.312036</v>
       </c>
       <c r="O14">
-        <v>0.004414710343669059</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P14">
-        <v>0.004847482995302872</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q14">
-        <v>2.793585366880666</v>
+        <v>1.218394279736</v>
       </c>
       <c r="R14">
-        <v>25.14226830192599</v>
+        <v>7.310365678416</v>
       </c>
       <c r="S14">
-        <v>0.001355776917678935</v>
+        <v>0.0005540205345059379</v>
       </c>
       <c r="T14">
-        <v>0.00152331720757739</v>
+        <v>0.0004163813025983073</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>90.69984199999999</v>
+        <v>11.713978</v>
       </c>
       <c r="H15">
-        <v>272.099526</v>
+        <v>23.427956</v>
       </c>
       <c r="I15">
-        <v>0.3071043878616396</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J15">
-        <v>0.3142491080532842</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.868607</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N15">
-        <v>3.737214</v>
+        <v>14.425447</v>
       </c>
       <c r="O15">
-        <v>0.267833421212511</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P15">
-        <v>0.1960593642364025</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q15">
-        <v>169.482359660094</v>
+        <v>56.32645626605534</v>
       </c>
       <c r="R15">
-        <v>1016.894157960564</v>
+        <v>337.958737596332</v>
       </c>
       <c r="S15">
-        <v>0.08225281887035686</v>
+        <v>0.0256124096496144</v>
       </c>
       <c r="T15">
-        <v>0.06161148033678344</v>
+        <v>0.01924933793672155</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>90.69984199999999</v>
+        <v>11.713978</v>
       </c>
       <c r="H16">
-        <v>272.099526</v>
+        <v>23.427956</v>
       </c>
       <c r="I16">
-        <v>0.3071043878616396</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J16">
-        <v>0.3142491080532842</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.072589</v>
+        <v>2.1739945</v>
       </c>
       <c r="N16">
-        <v>0.217767</v>
+        <v>4.347989</v>
       </c>
       <c r="O16">
-        <v>0.01040441366878908</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P16">
-        <v>0.01142435503336674</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q16">
-        <v>6.583810830937999</v>
+        <v>25.466123745121</v>
       </c>
       <c r="R16">
-        <v>59.254297478442</v>
+        <v>101.864494980484</v>
       </c>
       <c r="S16">
-        <v>0.003195241090812747</v>
+        <v>0.01157979459007585</v>
       </c>
       <c r="T16">
-        <v>0.003590093379319547</v>
+        <v>0.005801962989857298</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H17">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I17">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J17">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.196272</v>
+        <v>0.047446</v>
       </c>
       <c r="N17">
-        <v>0.588816</v>
+        <v>0.142338</v>
       </c>
       <c r="O17">
-        <v>0.02813229386822481</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P17">
-        <v>0.03089009369338271</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q17">
-        <v>3.95376891912</v>
+        <v>0.5557814001879999</v>
       </c>
       <c r="R17">
-        <v>23.72261351472</v>
+        <v>3.334688401128</v>
       </c>
       <c r="S17">
-        <v>0.001918834735437054</v>
+        <v>0.0002527214002246734</v>
       </c>
       <c r="T17">
-        <v>0.001437303306993692</v>
+        <v>0.0001899360389481915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>112.448217</v>
+      </c>
+      <c r="H18">
+        <v>337.344651</v>
+      </c>
+      <c r="I18">
+        <v>0.3647705113662153</v>
+      </c>
+      <c r="J18">
+        <v>0.3694500826342669</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>20.144335</v>
-      </c>
-      <c r="H18">
-        <v>40.28867</v>
-      </c>
-      <c r="I18">
-        <v>0.06820754626071789</v>
-      </c>
-      <c r="J18">
-        <v>0.04652958716345985</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.808482333333333</v>
+        <v>0.104012</v>
       </c>
       <c r="N18">
-        <v>14.425447</v>
+        <v>0.312036</v>
       </c>
       <c r="O18">
-        <v>0.6892151609068061</v>
+        <v>0.01457989208339885</v>
       </c>
       <c r="P18">
-        <v>0.7567787040415452</v>
+        <v>0.01622836922145579</v>
       </c>
       <c r="Q18">
-        <v>96.86367896424832</v>
+        <v>11.695963946604</v>
       </c>
       <c r="R18">
-        <v>581.1820737854899</v>
+        <v>105.263675519436</v>
       </c>
       <c r="S18">
-        <v>0.0470096749711391</v>
+        <v>0.005318314690925635</v>
       </c>
       <c r="T18">
-        <v>0.03521260067315126</v>
+        <v>0.005995572349886237</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.144335</v>
+        <v>112.448217</v>
       </c>
       <c r="H19">
-        <v>40.28867</v>
+        <v>337.344651</v>
       </c>
       <c r="I19">
-        <v>0.06820754626071789</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J19">
-        <v>0.04652958716345985</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03080033333333333</v>
+        <v>4.808482333333333</v>
       </c>
       <c r="N19">
-        <v>0.092401</v>
+        <v>14.425447</v>
       </c>
       <c r="O19">
-        <v>0.004414710343669059</v>
+        <v>0.674029472608256</v>
       </c>
       <c r="P19">
-        <v>0.004847482995302872</v>
+        <v>0.7502386907297295</v>
       </c>
       <c r="Q19">
-        <v>0.6204522327783333</v>
+        <v>540.7052648593329</v>
       </c>
       <c r="R19">
-        <v>3.72271339667</v>
+        <v>4866.347383733997</v>
       </c>
       <c r="S19">
-        <v>0.0003011165599934771</v>
+        <v>0.2458660753992139</v>
       </c>
       <c r="T19">
-        <v>0.0002255513825533344</v>
+        <v>0.2771757462855228</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.144335</v>
+        <v>112.448217</v>
       </c>
       <c r="H20">
-        <v>40.28867</v>
+        <v>337.344651</v>
       </c>
       <c r="I20">
-        <v>0.06820754626071789</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J20">
-        <v>0.04652958716345985</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.868607</v>
+        <v>2.1739945</v>
       </c>
       <c r="N20">
-        <v>3.737214</v>
+        <v>4.347989</v>
       </c>
       <c r="O20">
-        <v>0.267833421212511</v>
+        <v>0.3047398877043289</v>
       </c>
       <c r="P20">
-        <v>0.1960593642364025</v>
+        <v>0.2261302249190105</v>
       </c>
       <c r="Q20">
-        <v>37.64184539134499</v>
+        <v>244.4618052928065</v>
       </c>
       <c r="R20">
-        <v>150.56738156538</v>
+        <v>1466.770831756839</v>
       </c>
       <c r="S20">
-        <v>0.01826826046751868</v>
+        <v>0.1111601246715911</v>
       </c>
       <c r="T20">
-        <v>0.009122561277450212</v>
+        <v>0.08354383028243381</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.144335</v>
+        <v>112.448217</v>
       </c>
       <c r="H21">
-        <v>40.28867</v>
+        <v>337.344651</v>
       </c>
       <c r="I21">
-        <v>0.06820754626071789</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J21">
-        <v>0.04652958716345985</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.072589</v>
+        <v>0.047446</v>
       </c>
       <c r="N21">
-        <v>0.217767</v>
+        <v>0.142338</v>
       </c>
       <c r="O21">
-        <v>0.01040441366878908</v>
+        <v>0.006650747604016287</v>
       </c>
       <c r="P21">
-        <v>0.01142435503336674</v>
+        <v>0.007402715129804173</v>
       </c>
       <c r="Q21">
-        <v>1.462257133315</v>
+        <v>5.335218103781999</v>
       </c>
       <c r="R21">
-        <v>8.77354279989</v>
+        <v>48.016962934038</v>
       </c>
       <c r="S21">
-        <v>0.0007096595266295768</v>
+        <v>0.002425996604484652</v>
       </c>
       <c r="T21">
-        <v>0.0005315705233113491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>49.19389200000001</v>
-      </c>
-      <c r="H22">
-        <v>147.581676</v>
-      </c>
-      <c r="I22">
-        <v>0.1665676560846888</v>
-      </c>
-      <c r="J22">
-        <v>0.1704428182208917</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.196272</v>
-      </c>
-      <c r="N22">
-        <v>0.588816</v>
-      </c>
-      <c r="O22">
-        <v>0.02813229386822481</v>
-      </c>
-      <c r="P22">
-        <v>0.03089009369338271</v>
-      </c>
-      <c r="Q22">
-        <v>9.655383570624002</v>
-      </c>
-      <c r="R22">
-        <v>86.89845213561601</v>
-      </c>
-      <c r="S22">
-        <v>0.004685930249915871</v>
-      </c>
-      <c r="T22">
-        <v>0.005264994624207542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>49.19389200000001</v>
-      </c>
-      <c r="H23">
-        <v>147.581676</v>
-      </c>
-      <c r="I23">
-        <v>0.1665676560846888</v>
-      </c>
-      <c r="J23">
-        <v>0.1704428182208917</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.808482333333333</v>
-      </c>
-      <c r="N23">
-        <v>14.425447</v>
-      </c>
-      <c r="O23">
-        <v>0.6892151609068061</v>
-      </c>
-      <c r="P23">
-        <v>0.7567787040415452</v>
-      </c>
-      <c r="Q23">
-        <v>236.547960589908</v>
-      </c>
-      <c r="R23">
-        <v>2128.931645309172</v>
-      </c>
-      <c r="S23">
-        <v>0.1148009538902783</v>
-      </c>
-      <c r="T23">
-        <v>0.1289874950863951</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>49.19389200000001</v>
-      </c>
-      <c r="H24">
-        <v>147.581676</v>
-      </c>
-      <c r="I24">
-        <v>0.1665676560846888</v>
-      </c>
-      <c r="J24">
-        <v>0.1704428182208917</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03080033333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.092401</v>
-      </c>
-      <c r="O24">
-        <v>0.004414710343669059</v>
-      </c>
-      <c r="P24">
-        <v>0.004847482995302872</v>
-      </c>
-      <c r="Q24">
-        <v>1.515188271564</v>
-      </c>
-      <c r="R24">
-        <v>13.636694444076</v>
-      </c>
-      <c r="S24">
-        <v>0.0007353479542377862</v>
-      </c>
-      <c r="T24">
-        <v>0.0008262186629972709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>49.19389200000001</v>
-      </c>
-      <c r="H25">
-        <v>147.581676</v>
-      </c>
-      <c r="I25">
-        <v>0.1665676560846888</v>
-      </c>
-      <c r="J25">
-        <v>0.1704428182208917</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.868607</v>
-      </c>
-      <c r="N25">
-        <v>3.737214</v>
-      </c>
-      <c r="O25">
-        <v>0.267833421212511</v>
-      </c>
-      <c r="P25">
-        <v>0.1960593642364025</v>
-      </c>
-      <c r="Q25">
-        <v>91.92405094844401</v>
-      </c>
-      <c r="R25">
-        <v>551.544305690664</v>
-      </c>
-      <c r="S25">
-        <v>0.04461238519251113</v>
-      </c>
-      <c r="T25">
-        <v>0.03341691057904874</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>49.19389200000001</v>
-      </c>
-      <c r="H26">
-        <v>147.581676</v>
-      </c>
-      <c r="I26">
-        <v>0.1665676560846888</v>
-      </c>
-      <c r="J26">
-        <v>0.1704428182208917</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.072589</v>
-      </c>
-      <c r="N26">
-        <v>0.217767</v>
-      </c>
-      <c r="O26">
-        <v>0.01040441366878908</v>
-      </c>
-      <c r="P26">
-        <v>0.01142435503336674</v>
-      </c>
-      <c r="Q26">
-        <v>3.570935426388</v>
-      </c>
-      <c r="R26">
-        <v>32.138418837492</v>
-      </c>
-      <c r="S26">
-        <v>0.001733038797745695</v>
-      </c>
-      <c r="T26">
-        <v>0.001947199268243057</v>
+        <v>0.00273493371642409</v>
       </c>
     </row>
   </sheetData>
